--- a/KetQuaTest_ProductVariantDao.xlsx
+++ b/KetQuaTest_ProductVariantDao.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -35,40 +35,70 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>PV_DAO_02</t>
+  </si>
+  <si>
+    <t>Kiểm tra tồn tại (checkExist)</t>
+  </si>
+  <si>
+    <t>Item đã tồn tại</t>
+  </si>
+  <si>
+    <t>Insert ProductId=1, SizeId=14</t>
+  </si>
+  <si>
+    <t>Return Object (ID, Stock)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>PV_DAO_03</t>
   </si>
   <si>
     <t>Cập nhật tồn kho</t>
   </si>
   <si>
-    <t>Lấy item đầu tiên -&gt; Update stock=999</t>
-  </si>
-  <si>
-    <t>New Stock=999</t>
-  </si>
-  <si>
-    <t>Return True</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>PV_DAO_02</t>
+    <t>New Stock=9999</t>
+  </si>
+  <si>
+    <t>Update Stock 9999</t>
+  </si>
+  <si>
+    <t>Stock = 9999</t>
+  </si>
+  <si>
+    <t>PV_DAO_04</t>
   </si>
   <si>
     <t>Tìm biến thể theo SP</t>
   </si>
   <si>
+    <t>ProductId=1</t>
+  </si>
+  <si>
     <t>findByProductId(1)</t>
   </si>
   <si>
-    <t>ProductId=1</t>
-  </si>
-  <si>
-    <t>List &gt; 0</t>
+    <t>List size &gt; 0 (và có join)</t>
+  </si>
+  <si>
+    <t>PV_DAO_06</t>
+  </si>
+  <si>
+    <t>Lỗi Khóa ngoại (Insert)</t>
+  </si>
+  <si>
+    <t>PID=-1</t>
+  </si>
+  <si>
+    <t>Insert với ProductId rác (-1)</t>
+  </si>
+  <si>
+    <t>DAO trả về False</t>
   </si>
   <si>
     <t>PV_DAO_01</t>
@@ -77,22 +107,25 @@
     <t>Thêm biến thể mới</t>
   </si>
   <si>
-    <t>Insert ProductId=1, SizeId=1</t>
-  </si>
-  <si>
-    <t>Stock=50</t>
-  </si>
-  <si>
-    <t>PV_DAO_04</t>
+    <t>Stock=99</t>
+  </si>
+  <si>
+    <t>Insert ProductId=1, Stock=99</t>
+  </si>
+  <si>
+    <t>Return true</t>
+  </si>
+  <si>
+    <t>PV_DAO_05</t>
   </si>
   <si>
     <t>Xóa biến thể</t>
   </si>
   <si>
-    <t>Thêm nháp -&gt; Lấy ID -&gt; Xóa</t>
-  </si>
-  <si>
     <t>Temp Item</t>
+  </si>
+  <si>
+    <t>Insert nháp -&gt; Delete</t>
   </si>
   <si>
     <t>FindById trả về null</t>
@@ -173,17 +206,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.5546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.51171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.23046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="23.1640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -271,7 +304,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -282,24 +315,70 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>13</v>
       </c>
     </row>
